--- a/docs/Development Plans/Roadmap.xlsx
+++ b/docs/Development Plans/Roadmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Data Fields</t>
   </si>
@@ -39,39 +39,6 @@
     <t>Mining</t>
   </si>
   <si>
-    <t>Demurrage</t>
-  </si>
-  <si>
-    <t>Market Viewer</t>
-  </si>
-  <si>
-    <t>Decisions</t>
-  </si>
-  <si>
-    <t>Markets</t>
-  </si>
-  <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Withdrawals</t>
-  </si>
-  <si>
-    <t>Votes</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>Trades</t>
-  </si>
-  <si>
-    <t>Logistics - Tiny GUI / csv file</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adding ( (1/99) / (Blocks/Year) ) to miner then reweighing.</t>
-  </si>
-  <si>
     <t>Using 'Size' Parameter of Market</t>
   </si>
   <si>
@@ -81,12 +48,6 @@
     <t>Market Content - Title/Description/Etc</t>
   </si>
   <si>
-    <t>Inbuilt Exchange</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
     <t>Encryption of Votes, release of key / timing</t>
   </si>
   <si>
@@ -108,9 +69,6 @@
     <t>Kill-logic</t>
   </si>
   <si>
-    <t>Vanilla - Check Bitcoin Elements &amp; Chain Advancement</t>
-  </si>
-  <si>
     <t>Merged Mining (Extra problems or solutions?)</t>
   </si>
   <si>
@@ -120,9 +78,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Transaction Withdrawal Problem (see DesignQuestion.pdf)</t>
-  </si>
-  <si>
     <t>An extremely preliminary draft of the dev tasks required for a useable version.</t>
   </si>
   <si>
@@ -132,21 +87,172 @@
     <t>Adding/Removing to Vote-Matrix (Interaction of Decisions and Votes)</t>
   </si>
   <si>
-    <t>Transactional Capabilities (Distributed Asset Ledger)</t>
-  </si>
-  <si>
-    <t>Network Discovery</t>
-  </si>
-  <si>
-    <t>…(etc.)</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Transaction Withdrawal Problem</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>How will Altchain manage Bitcoins?
+(see DesignQuestion.pdf)</t>
+  </si>
+  <si>
+    <t>With minimal help from anyone</t>
+  </si>
+  <si>
+    <t>I'll probably forget about the project completely</t>
+  </si>
+  <si>
+    <t>Probably be conducting realistic tests with final software March Madness 2015</t>
+  </si>
+  <si>
+    <t>With 1-2 Bitcoin-dev-type coder</t>
+  </si>
+  <si>
+    <t>Expectations</t>
+  </si>
+  <si>
+    <t>Parameters - Chain (Fee, Participation, Catch, Smooth, MaxRows)</t>
+  </si>
+  <si>
+    <t>Trades - T Set</t>
+  </si>
+  <si>
+    <t>Bitcoin Interaction</t>
+  </si>
+  <si>
+    <t>Function List</t>
+  </si>
+  <si>
+    <t>Transaction = xfer( UnspentTruthcoin, Target Pubkey, BTC Address, Time Req )</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Participation ChainKill (10 blocks?)</t>
+  </si>
+  <si>
+    <t>Mining Fees</t>
+  </si>
+  <si>
+    <t>Everything needs  a fee (to merit inclusion in a node)
+Demurrage [perhaps scrapped] =  Adding ( (1/99) / (Blocks/Year) ) to miner then reweighing.</t>
+  </si>
+  <si>
+    <t>Logistics of Ballot Construction - Tiny GUI / csv file, one at a time, etc.</t>
+  </si>
+  <si>
+    <t>Network Discovery/Finding Nodes/DDOS resistance</t>
+  </si>
+  <si>
+    <t>Check Previous Rules</t>
+  </si>
+  <si>
+    <t>Check Advancement == TRUE</t>
+  </si>
+  <si>
+    <t>Algorithm for determining H from V</t>
+  </si>
+  <si>
+    <t>Funds - F</t>
+  </si>
+  <si>
+    <t>Reputation - R</t>
+  </si>
+  <si>
+    <t>Decisions - D</t>
+  </si>
+  <si>
+    <t>Markets - M</t>
+  </si>
+  <si>
+    <t>Votes - V</t>
+  </si>
+  <si>
+    <t>History - H</t>
+  </si>
+  <si>
+    <t>Stores everyone's money</t>
+  </si>
+  <si>
+    <t>Stores everyone's reputation</t>
+  </si>
+  <si>
+    <t>Stores the Yes/No building blocks of markets</t>
+  </si>
+  <si>
+    <t>Stores the market info (incl. shares outstanding)</t>
+  </si>
+  <si>
+    <t>Stores this period's votes</t>
+  </si>
+  <si>
+    <t>Stores the Decision Outcomes</t>
+  </si>
+  <si>
+    <t>Everything in 'consensus', particularly Factory(Vmatrix, Rset, Participation, Catch, Smooth, MaxRows)</t>
+  </si>
+  <si>
+    <t>Editing D</t>
+  </si>
+  <si>
+    <t>(text, fee, time to expiry, sponsor address)</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Editing M</t>
+  </si>
+  <si>
+    <t>(D's, Structure, sponsor, b, payment)</t>
+  </si>
+  <si>
+    <t>Editing V</t>
+  </si>
+  <si>
+    <t>(Pubkey, Ballot [signed and encrypted]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,12 +276,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,245 +698,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E57"/>
+  <dimension ref="A2:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="15" style="5" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="16"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>21</v>
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Development Plans/Roadmap.xlsx
+++ b/docs/Development Plans/Roadmap.xlsx
@@ -369,12 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,6 +390,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,14 +700,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="58.28515625" customWidth="1"/>
@@ -717,133 +717,133 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="18">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="1">
@@ -857,19 +857,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="18">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
@@ -877,24 +877,24 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="18">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
@@ -902,31 +902,31 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="18">
         <v>5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
@@ -934,8 +934,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -944,24 +944,24 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
       <c r="D25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
       <c r="D26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" s="18">
         <v>6</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
@@ -969,24 +969,24 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>7</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
@@ -1009,10 +1009,10 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="B31" s="18">
         <v>8</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
@@ -1020,24 +1020,24 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
       <c r="D32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
       <c r="D33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+      <c r="B34" s="18">
         <v>9</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
@@ -1045,8 +1045,8 @@
       </c>
     </row>
     <row r="35" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" t="s">
         <v>46</v>
       </c>
@@ -1055,37 +1055,37 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="16"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
@@ -1118,6 +1118,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
@@ -1128,15 +1134,9 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/Development Plans/Roadmap.xlsx
+++ b/docs/Development Plans/Roadmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>Data Fields</t>
   </si>
@@ -75,24 +75,12 @@
     <t>Displaying Content - (Think API, not graphics)</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>An extremely preliminary draft of the dev tasks required for a useable version.</t>
-  </si>
-  <si>
     <t>Chain Advancement (validation)</t>
   </si>
   <si>
     <t>Adding/Removing to Vote-Matrix (Interaction of Decisions and Votes)</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -105,19 +93,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>Transaction Withdrawal Problem</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>How will Altchain manage Bitcoins?
-(see DesignQuestion.pdf)</t>
-  </si>
-  <si>
     <t>With minimal help from anyone</t>
   </si>
   <si>
@@ -139,15 +117,9 @@
     <t>Trades - T Set</t>
   </si>
   <si>
-    <t>Bitcoin Interaction</t>
-  </si>
-  <si>
     <t>Function List</t>
   </si>
   <si>
-    <t>Transaction = xfer( UnspentTruthcoin, Target Pubkey, BTC Address, Time Req )</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -160,10 +132,6 @@
     <t>Mining Fees</t>
   </si>
   <si>
-    <t>Everything needs  a fee (to merit inclusion in a node)
-Demurrage [perhaps scrapped] =  Adding ( (1/99) / (Blocks/Year) ) to miner then reweighing.</t>
-  </si>
-  <si>
     <t>Logistics of Ballot Construction - Tiny GUI / csv file, one at a time, etc.</t>
   </si>
   <si>
@@ -173,12 +141,6 @@
     <t>Check Previous Rules</t>
   </si>
   <si>
-    <t>Check Advancement == TRUE</t>
-  </si>
-  <si>
-    <t>Algorithm for determining H from V</t>
-  </si>
-  <si>
     <t>Funds - F</t>
   </si>
   <si>
@@ -236,7 +198,88 @@
     <t>Editing V</t>
   </si>
   <si>
-    <t>(Pubkey, Ballot [signed and encrypted]</t>
+    <t>Algorithm for determining R,H from V</t>
+  </si>
+  <si>
+    <t>This is the crux of the design, for a full description read the whitepaper Truthcoin_1.pdf</t>
+  </si>
+  <si>
+    <t>A simple signed message containing the ballot and a new public-key for the voter.</t>
+  </si>
+  <si>
+    <t>No real progress on this can be made until there are finalized data structures.</t>
+  </si>
+  <si>
+    <t>This is a purely cosmetric detail.</t>
+  </si>
+  <si>
+    <t>A professional cryptographer should probably address this, although it is simple encryption and signing there are probably some pitfalls and improvements.</t>
+  </si>
+  <si>
+    <t>This is exactly like a sequence number, except all transactions are included in the blockchain.</t>
+  </si>
+  <si>
+    <t>Someone who knows about chain re-orgs should look at doing this, as the timestamp will always occur mid-trading</t>
+  </si>
+  <si>
+    <t>Preventing manipulation, ie required "place in line" or "q(shares)"</t>
+  </si>
+  <si>
+    <t>Fine tuning the Kill Logic requirements</t>
+  </si>
+  <si>
+    <t>Pay-per-kB (clear)</t>
+  </si>
+  <si>
+    <t>GUI / Content</t>
+  </si>
+  <si>
+    <t>Basic node behavior - I'm thinking that it can be optional to download info about Markets you don't want to trade in or observe (you would not be a full node).</t>
+  </si>
+  <si>
+    <t>Block Validtation Rules (essentially 'all above')</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>A few digits, ranging from 0 to 1.</t>
+  </si>
+  <si>
+    <t>essentially similar to a sequence of bitcoin transactions</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Its been done once, and could easily be redone</t>
+  </si>
+  <si>
+    <t>No progress has been made</t>
+  </si>
+  <si>
+    <t>Relatively debugged functions exist and are published</t>
+  </si>
+  <si>
+    <t>These elements we can simply take from Bitcoin</t>
+  </si>
+  <si>
+    <t>To prevent vote-censorship, I added a chain-tiebreak rule which allows for a chain with slightly lower PoW to become valid if it contains significantly more votes.</t>
+  </si>
+  <si>
+    <t>Everything needs  a fee (to merit inclusion in a node).</t>
+  </si>
+  <si>
+    <t>(Pubkey, Ballot [signed and encrypted], New Pubkey)</t>
+  </si>
+  <si>
+    <t>Preliminary draft of the dev tasks required for a useable version.</t>
   </si>
 </sst>
 </file>
@@ -268,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -356,24 +399,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -384,7 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -394,8 +517,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,442 +875,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K52"/>
+  <dimension ref="A2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="58.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="E14" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>4</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>5</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <v>6</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15">
+        <v>7</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="15">
+        <v>8</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
-        <v>2</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
-        <v>3</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
-        <v>4</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
-        <v>5</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18">
-        <v>6</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
-        <v>8</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="18">
-        <v>9</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" t="s">
-        <v>72</v>
+      <c r="E48" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
